--- a/Learning/Converter/Informações.xlsx
+++ b/Learning/Converter/Informações.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaorocha\Desktop\Py\Learning\Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B86093-E71A-47E6-9C26-0E3F96F9BCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AAA223-AC45-4419-9D03-6C712062B43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{04D7124A-5188-4500-8497-6BF2720CFC6F}"/>
+    <workbookView xWindow="-26640" yWindow="2160" windowWidth="21600" windowHeight="11835" xr2:uid="{04D7124A-5188-4500-8497-6BF2720CFC6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>Tênis</t>
+  </si>
+  <si>
+    <t>Marmota</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Pedra</t>
+  </si>
+  <si>
+    <t>Bu</t>
   </si>
 </sst>
 </file>
@@ -171,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,13 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D54E2C-7180-45FA-9DC4-3033A03357AD}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -501,7 +521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -515,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -529,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -543,7 +563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -557,7 +577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -569,6 +589,34 @@
       </c>
       <c r="D7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
